--- a/Project Progress Sheet.xlsx
+++ b/Project Progress Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>Week</t>
   </si>
@@ -25,9 +25,18 @@
     <t>Task Description</t>
   </si>
   <si>
+    <t>Assign to</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -37,27 +46,48 @@
     <t>Finalize project title, scope, and objectives</t>
   </si>
   <si>
+    <t>All members</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Create GitHub repository and Overleaf document</t>
   </si>
   <si>
     <t>Data Ingestion</t>
   </si>
   <si>
-    <t>Create folder structure and add sample PDFs</t>
-  </si>
-  <si>
     <t>Implement PDF reader (ingest.py)</t>
   </si>
   <si>
+    <t>Diya, Akanksh</t>
+  </si>
+  <si>
     <t>Implement text chunking (text_splitter.py)</t>
   </si>
   <si>
+    <t xml:space="preserve">Dhairya, Vidhi </t>
+  </si>
+  <si>
     <t>Embedding</t>
   </si>
   <si>
     <t>Research best embedding model (MiniLM / mpnet)</t>
   </si>
   <si>
+    <t xml:space="preserve">Akanksh, Vidhi </t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Design initial SQLite schema (structure only)</t>
+  </si>
+  <si>
+    <t>Dhairya, Diya</t>
+  </si>
+  <si>
     <t>All</t>
   </si>
   <si>
@@ -73,15 +103,30 @@
     <t>Implement embedding generation (embed_store.py)</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>Implement FAISS vector index and store chunks</t>
   </si>
   <si>
+    <t>Diya</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
     <t>Implement retrieval module (retriever.py)</t>
   </si>
   <si>
+    <t>Akanksh</t>
+  </si>
+  <si>
     <t>Test retrieval accuracy with sample queries</t>
   </si>
   <si>
+    <t>Vidhi, Akanksh</t>
+  </si>
+  <si>
     <t>Integration</t>
   </si>
   <si>
@@ -97,21 +142,33 @@
     <t>Implement LLM query generator (generate.py)</t>
   </si>
   <si>
+    <t>Vidhi</t>
+  </si>
+  <si>
     <t>Build Streamlit UI (app.py)</t>
   </si>
   <si>
     <t>Integrate retrieval with generation</t>
   </si>
   <si>
+    <t>Vidhi, Dhairya</t>
+  </si>
+  <si>
     <t>Logging</t>
   </si>
   <si>
     <t>Implement database logging (db_logger.py)</t>
   </si>
   <si>
+    <t>Akanksh, Dhairya</t>
+  </si>
+  <si>
     <t>Test query logging with UI inputs</t>
   </si>
   <si>
+    <t>Akanksh, Diya</t>
+  </si>
+  <si>
     <t>Week 4</t>
   </si>
   <si>
@@ -122,6 +179,9 @@
   </si>
   <si>
     <t>Compute metrics (retrieval accuracy, latency, relevance)</t>
+  </si>
+  <si>
+    <t>Dhairya, Vidhi</t>
   </si>
   <si>
     <t>Visualization</t>
@@ -146,6 +206,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d-mmm"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -173,11 +236,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -401,6 +467,7 @@
     <col customWidth="1" min="2" max="2" width="23.38"/>
     <col customWidth="1" min="3" max="3" width="12.13"/>
     <col customWidth="1" min="4" max="4" width="46.13"/>
+    <col customWidth="1" min="5" max="5" width="16.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -419,326 +486,599 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1.1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45964.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45965.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>1.2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45964.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45965.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>1.3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45965.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45966.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1.4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45966.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45967.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1.5</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45967.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45969.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>1.6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45969.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45970.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>1.7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45970.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45970.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>2.1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45971.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45972.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1">
         <v>2.2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45972.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45975.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>2.3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45972.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45976.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>2.4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45976.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45976.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
         <v>2.5</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45977.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45978.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1">
         <v>3.1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45979.0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45980.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>3.2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45979.0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45981.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1">
         <v>3.3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45981.0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45982.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1">
         <v>3.4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45982.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45983.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1">
         <v>3.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45983.0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45984.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1">
         <v>4.1</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45985.0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45986.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>4.2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45985.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45987.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1">
         <v>4.3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45986.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45987.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1">
         <v>4.4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45988.0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45988.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1">
         <v>4.5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45989.0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45989.0</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="portrait" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>